--- a/BerthPlan/Assets/Templates/ユーザーマスター.xlsx
+++ b/BerthPlan/Assets/Templates/ユーザーマスター.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seiko\Documents\New folder\BerthPlan\Assets\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユーザー\source\repos\BerthPlan\BerthPlan\Assets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1504B1D-0718-403A-BDBA-0555DC44BB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D271F36-D4D2-40FB-BD6B-C1740430C99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザーマスター" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ユーザーID</t>
     <phoneticPr fontId="3"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>ユーザーマスター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>申請者名</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -168,7 +172,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -480,37 +484,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="55.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="1"/>
+    <col min="3" max="4" width="27.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,16 +527,20 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A1:E2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
